--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24124"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C769C196-3506-403E-9D7B-C46622369BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D23CAFC-E9B5-447F-9200-877C1D7ECB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="記入例" sheetId="3" r:id="rId2"/>
-    <sheet name="ユーザーテーブル" sheetId="2" r:id="rId3"/>
-    <sheet name="チャットテーブル" sheetId="5" r:id="rId4"/>
-    <sheet name="チャットユーザーテーブル" sheetId="9" r:id="rId5"/>
-    <sheet name="投稿テーブル" sheetId="10" r:id="rId6"/>
-    <sheet name="タスクテーブル" sheetId="6" r:id="rId7"/>
+    <sheet name="ユーザーテーブル" sheetId="2" r:id="rId2"/>
+    <sheet name="チャットテーブル" sheetId="5" r:id="rId3"/>
+    <sheet name="チャットユーザーテーブル" sheetId="9" r:id="rId4"/>
+    <sheet name="投稿テーブル" sheetId="10" r:id="rId5"/>
+    <sheet name="タスクテーブル" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="102">
   <si>
     <t>改定履歴</t>
   </si>
@@ -55,37 +54,34 @@
     <t>alcoder</t>
   </si>
   <si>
-    <t>table_names</t>
-    <phoneticPr fontId="6"/>
+    <t>ユーザーテーブル</t>
+  </si>
+  <si>
+    <t>新規作成</t>
+  </si>
+  <si>
+    <t>チャットテーブル</t>
+  </si>
+  <si>
+    <t>チャットユーザーテーブル</t>
+  </si>
+  <si>
+    <t>投稿テーブル</t>
+  </si>
+  <si>
+    <t>タスクテーブル</t>
+  </si>
+  <si>
+    <t>users</t>
   </si>
   <si>
     <t>役割</t>
   </si>
   <si>
-    <t>テーブルに関する情報を保持するテーブル</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
+    <t>ユーザー情報の保存場所</t>
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>備考があれば記入する</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>#</t>
@@ -212,392 +208,6 @@
     <t>その他設定</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>テーブル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uto_increment</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>テーブル名</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ame</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>archar</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>概要</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>escription</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>削除フラグ</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>s_deleted</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>inyint</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>削除済み</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>作成日時</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>reated_at</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>atetime</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>作成ユーザー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>reate_user_id</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>更新日時</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pdated_at</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>更新ユーザー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pdate_user_id</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>ユーザー情報の保存場所</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -626,7 +236,7 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>不明</t>
+    <t>空文字</t>
   </si>
   <si>
     <t>メールアドレス</t>
@@ -659,7 +269,7 @@
     <t>自己紹介文</t>
   </si>
   <si>
-    <t>comment</t>
+    <t>profile</t>
   </si>
   <si>
     <t>text</t>
@@ -716,22 +326,16 @@
     <t>チャット名</t>
   </si>
   <si>
-    <t>chat_name</t>
-  </si>
-  <si>
-    <t>チャット</t>
-  </si>
-  <si>
     <t>チャット概要</t>
   </si>
   <si>
-    <t>chat_view</t>
+    <t>description</t>
   </si>
   <si>
     <t>ファイル送信</t>
   </si>
   <si>
-    <t>file_permit</t>
+    <t>is_permit_file</t>
   </si>
   <si>
     <t>1:ファイル送信可</t>
@@ -740,7 +344,7 @@
     <t>ダイレクトチャット</t>
   </si>
   <si>
-    <t>direct_chat</t>
+    <t>is_direct_chat</t>
   </si>
   <si>
     <t>1:ダイレクトチャット</t>
@@ -791,13 +395,13 @@
     <t>投稿内容</t>
   </si>
   <si>
-    <t>post</t>
+    <t>contents</t>
   </si>
   <si>
     <t>添付ファイル名</t>
   </si>
   <si>
-    <t>file</t>
+    <t>attachment_file_name</t>
   </si>
   <si>
     <t>投稿日時</t>
@@ -818,9 +422,6 @@
     <t>タスク内容</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>期限</t>
   </si>
   <si>
@@ -830,7 +431,7 @@
     <t>完了チェック</t>
   </si>
   <si>
-    <t>is_checked</t>
+    <t>is_completed</t>
   </si>
   <si>
     <t>1:チェック済み</t>
@@ -840,7 +441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -875,19 +476,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1019,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1036,11 +624,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1055,17 +643,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1073,18 +657,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1306,7 +887,7 @@
   <dimension ref="A1:Z1030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1319,9 +900,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1386,7 +967,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1416,9 +997,15 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="7">
+        <v>44350</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1444,9 +1031,15 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="7">
+        <v>44350</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1472,9 +1065,15 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="7">
+        <v>44350</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1500,9 +1099,15 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="7">
+        <v>44350</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1528,9 +1133,15 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="7">
+        <v>44350</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -30179,305 +29790,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:M12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="4">
-        <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="15">
-        <v>11</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="15">
-        <v>100</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="15">
-        <v>11</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="15">
-        <v>11</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -30486,7 +29798,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30502,60 +29814,60 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+        <v>14</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30564,31 +29876,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -30597,31 +29909,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F6" s="15">
         <v>100</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -30630,31 +29942,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F7" s="15">
         <v>100</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
@@ -30663,31 +29975,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F8" s="15">
         <v>100</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -30696,31 +30008,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F9" s="15">
         <v>13</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -30729,31 +30041,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F10" s="15">
         <v>13</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -30762,31 +30074,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F11" s="15">
         <v>1000</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -30795,13 +30107,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -30810,16 +30122,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -30828,31 +30140,31 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -30861,31 +30173,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -30894,31 +30206,31 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
@@ -30927,31 +30239,31 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -30966,16 +30278,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B91017-2DE9-446C-966E-677CEF02E17B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30994,60 +30306,60 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -31056,31 +30368,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
@@ -31089,31 +30401,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F6" s="15">
         <v>11</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
@@ -31122,31 +30434,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F7" s="15">
         <v>11</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
@@ -31155,31 +30467,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F8" s="15">
         <v>100</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
@@ -31188,31 +30500,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F9" s="15">
         <v>1000</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -31221,13 +30533,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -31236,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -31254,13 +30566,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -31269,16 +30581,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -31287,13 +30599,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -31302,16 +30614,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -31320,31 +30632,31 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -31353,31 +30665,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
@@ -31422,7 +30734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823A20FE-40FA-4AA5-ADAE-370622B91ECE}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -31449,60 +30761,60 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31511,31 +30823,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -31544,31 +30856,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F6" s="15">
         <v>11</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -31577,31 +30889,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F7" s="15">
         <v>11</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
@@ -31610,31 +30922,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F8" s="15">
         <v>11</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -31643,31 +30955,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -31676,31 +30988,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -31709,31 +31021,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -31742,31 +31054,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -31775,31 +31087,31 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -31808,31 +31120,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -31841,31 +31153,31 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
@@ -31874,31 +31186,31 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -31913,7 +31225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B914803C-AD99-48C6-AD00-41C29D521C24}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -31922,7 +31234,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31940,60 +31252,60 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -32002,31 +31314,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -32035,31 +31347,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F6" s="15">
         <v>11</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -32068,31 +31380,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F7" s="15">
         <v>11</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
@@ -32101,31 +31413,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="F8" s="15">
         <v>11</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -32134,31 +31446,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F9" s="15">
         <v>1000</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -32167,31 +31479,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F10" s="15">
         <v>100</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -32200,13 +31512,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -32215,16 +31527,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -32233,31 +31545,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -32266,31 +31578,31 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -32299,31 +31611,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -32332,31 +31644,31 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
@@ -32365,31 +31677,31 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -32404,16 +31716,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8703CDE8-E9D9-4DC8-97D0-53158FC3CAC3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:K16"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32431,60 +31743,60 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -32493,31 +31805,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
@@ -32526,31 +31838,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F6" s="15">
         <v>11</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -32559,31 +31871,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F7" s="15">
         <v>11</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
@@ -32592,31 +31904,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F8" s="15">
         <v>11</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -32625,31 +31937,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F9" s="15">
         <v>11</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -32658,31 +31970,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F10" s="15">
         <v>1000</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -32691,31 +32003,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -32724,13 +32036,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -32739,16 +32051,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -32757,13 +32069,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -32772,16 +32084,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -32790,31 +32102,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -32823,31 +32135,31 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
@@ -32856,31 +32168,31 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
